--- a/Old Order Summary Acc/GMS Composite/GMS Composite.xlsx
+++ b/Old Order Summary Acc/GMS Composite/GMS Composite.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="167">
   <si>
     <t>MAHID KNITTING</t>
   </si>
@@ -512,6 +512,12 @@
   </si>
   <si>
     <t>12.09.21</t>
+  </si>
+  <si>
+    <t>15.09.21</t>
+  </si>
+  <si>
+    <t>fleece</t>
   </si>
 </sst>
 </file>
@@ -972,8 +978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="M133" sqref="M133"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="M137" sqref="M137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4992,10 +4998,18 @@
       <c r="I125" s="9">
         <v>250</v>
       </c>
-      <c r="J125" s="8"/>
-      <c r="K125" s="8"/>
-      <c r="L125" s="8"/>
-      <c r="M125" s="9"/>
+      <c r="J125" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="K125" s="8">
+        <v>1717</v>
+      </c>
+      <c r="L125" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M125" s="9">
+        <v>1055</v>
+      </c>
       <c r="N125" s="10"/>
       <c r="O125" s="14"/>
       <c r="P125" s="4"/>
@@ -5090,7 +5104,7 @@
       <c r="L129" s="11"/>
       <c r="M129" s="10">
         <f>SUM(M124:M128)</f>
-        <v>944</v>
+        <v>1999</v>
       </c>
       <c r="N129" s="10">
         <f>SUM(N124:N128)</f>
@@ -5098,7 +5112,7 @@
       </c>
       <c r="O129" s="14">
         <f>M129-I129+N129</f>
-        <v>-1555</v>
+        <v>-500</v>
       </c>
       <c r="P129" s="4"/>
     </row>
@@ -5347,11 +5361,18 @@
       <c r="I136" s="9">
         <v>1150</v>
       </c>
-      <c r="J136" s="11"/>
-      <c r="K136" s="11"/>
-      <c r="L136" s="11"/>
+      <c r="J136" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="K136" s="11">
+        <v>1717</v>
+      </c>
+      <c r="L136" s="11" t="s">
+        <v>166</v>
+      </c>
       <c r="M136" s="10">
-        <v>0</v>
+        <f>870+566</f>
+        <v>1436</v>
       </c>
       <c r="N136" s="10"/>
       <c r="O136" s="14"/>
@@ -5481,7 +5502,7 @@
       <c r="L141" s="11"/>
       <c r="M141" s="10">
         <f>SUM(M136:M140)</f>
-        <v>0</v>
+        <v>1436</v>
       </c>
       <c r="N141" s="10">
         <f>SUM(N136:N140)</f>
@@ -5489,7 +5510,7 @@
       </c>
       <c r="O141" s="14">
         <f>M141-I141+N141</f>
-        <v>-2499</v>
+        <v>-1063</v>
       </c>
       <c r="P141" s="4"/>
     </row>
@@ -5784,7 +5805,7 @@
       <c r="L157" s="11"/>
       <c r="M157" s="10">
         <f>+M141+M135+M129+M123+M116+M110+M101+M96+M90+M85+M79+M65+M56+M51+M46+M39+M22+M27+M14</f>
-        <v>72181.7</v>
+        <v>74672.7</v>
       </c>
       <c r="N157" s="10">
         <f>+N141+N135+N129+N123+N116+N110+N101+N96+N90+N85+N79+N65+N56+N51+N46+N39+N22+N27+N14</f>
@@ -5792,7 +5813,7 @@
       </c>
       <c r="O157" s="19">
         <f>SUM(O7:O156)</f>
-        <v>-7855.3</v>
+        <v>-5364.3</v>
       </c>
       <c r="P157" s="4"/>
     </row>

--- a/Old Order Summary Acc/GMS Composite/GMS Composite.xlsx
+++ b/Old Order Summary Acc/GMS Composite/GMS Composite.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="168">
   <si>
     <t>MAHID KNITTING</t>
   </si>
@@ -518,6 +518,9 @@
   </si>
   <si>
     <t>fleece</t>
+  </si>
+  <si>
+    <t>20.09.21</t>
   </si>
 </sst>
 </file>
@@ -978,8 +981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="M137" sqref="M137"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="M84" sqref="M84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3624,10 +3627,19 @@
       <c r="G83" s="4"/>
       <c r="H83" s="8"/>
       <c r="I83" s="10"/>
-      <c r="J83" s="8"/>
-      <c r="K83" s="8"/>
-      <c r="L83" s="8"/>
-      <c r="M83" s="9"/>
+      <c r="J83" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="K83" s="8">
+        <v>1743</v>
+      </c>
+      <c r="L83" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="M83" s="9">
+        <f>652+213+95+167+335+92</f>
+        <v>1554</v>
+      </c>
       <c r="N83" s="10"/>
       <c r="O83" s="14"/>
       <c r="P83" s="4"/>
@@ -3668,7 +3680,7 @@
       <c r="L85" s="11"/>
       <c r="M85" s="10">
         <f>SUM(M80:M84)</f>
-        <v>3311</v>
+        <v>4865</v>
       </c>
       <c r="N85" s="10">
         <f>SUM(N80:N84)</f>
@@ -3676,7 +3688,7 @@
       </c>
       <c r="O85" s="14">
         <f>M85-I85+N85</f>
-        <v>-1989</v>
+        <v>-435</v>
       </c>
       <c r="P85" s="4"/>
     </row>
@@ -3790,10 +3802,19 @@
       <c r="I88" s="9">
         <v>1090</v>
       </c>
-      <c r="J88" s="8"/>
-      <c r="K88" s="8"/>
-      <c r="L88" s="8"/>
-      <c r="M88" s="9"/>
+      <c r="J88" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="K88" s="8">
+        <v>1743</v>
+      </c>
+      <c r="L88" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M88" s="9">
+        <f>717+636</f>
+        <v>1353</v>
+      </c>
       <c r="N88" s="10"/>
       <c r="O88" s="14"/>
       <c r="P88" s="4"/>
@@ -3834,7 +3855,7 @@
       <c r="L90" s="11"/>
       <c r="M90" s="10">
         <f>SUM(M86:M89)</f>
-        <v>815</v>
+        <v>2168</v>
       </c>
       <c r="N90" s="10">
         <f>SUM(N86:N89)</f>
@@ -3842,7 +3863,7 @@
       </c>
       <c r="O90" s="14">
         <f>M90-I90+N90</f>
-        <v>-1685</v>
+        <v>-332</v>
       </c>
       <c r="P90" s="4"/>
     </row>
@@ -5042,10 +5063,18 @@
       <c r="I126" s="9">
         <v>1100</v>
       </c>
-      <c r="J126" s="8"/>
-      <c r="K126" s="8"/>
-      <c r="L126" s="8"/>
-      <c r="M126" s="9"/>
+      <c r="J126" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="K126" s="8">
+        <v>1743</v>
+      </c>
+      <c r="L126" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M126" s="9">
+        <v>443</v>
+      </c>
       <c r="N126" s="10"/>
       <c r="O126" s="14"/>
       <c r="P126" s="4"/>
@@ -5104,7 +5133,7 @@
       <c r="L129" s="11"/>
       <c r="M129" s="10">
         <f>SUM(M124:M128)</f>
-        <v>1999</v>
+        <v>2442</v>
       </c>
       <c r="N129" s="10">
         <f>SUM(N124:N128)</f>
@@ -5112,7 +5141,7 @@
       </c>
       <c r="O129" s="14">
         <f>M129-I129+N129</f>
-        <v>-500</v>
+        <v>-57</v>
       </c>
       <c r="P129" s="4"/>
     </row>
@@ -5404,17 +5433,25 @@
       <c r="I137" s="9">
         <v>250</v>
       </c>
-      <c r="J137" s="11"/>
-      <c r="K137" s="11"/>
-      <c r="L137" s="11"/>
-      <c r="M137" s="10"/>
+      <c r="J137" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="K137" s="11">
+        <v>1743</v>
+      </c>
+      <c r="L137" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="M137" s="10">
+        <v>853</v>
+      </c>
       <c r="N137" s="10"/>
       <c r="O137" s="14"/>
       <c r="P137" s="4"/>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>62</v>
+        <v>156</v>
       </c>
       <c r="B138" s="7" t="s">
         <v>102</v>
@@ -5502,7 +5539,7 @@
       <c r="L141" s="11"/>
       <c r="M141" s="10">
         <f>SUM(M136:M140)</f>
-        <v>1436</v>
+        <v>2289</v>
       </c>
       <c r="N141" s="10">
         <f>SUM(N136:N140)</f>
@@ -5510,7 +5547,7 @@
       </c>
       <c r="O141" s="14">
         <f>M141-I141+N141</f>
-        <v>-1063</v>
+        <v>-210</v>
       </c>
       <c r="P141" s="4"/>
     </row>
@@ -5577,11 +5614,17 @@
       <c r="F145" s="9"/>
       <c r="G145" s="4"/>
       <c r="H145" s="8"/>
-      <c r="I145" s="9"/>
+      <c r="I145" s="9">
+        <f>I141+I90</f>
+        <v>4999</v>
+      </c>
       <c r="J145" s="11"/>
       <c r="K145" s="11"/>
       <c r="L145" s="11"/>
-      <c r="M145" s="10"/>
+      <c r="M145" s="10">
+        <f>1685+1063</f>
+        <v>2748</v>
+      </c>
       <c r="N145" s="10"/>
       <c r="O145" s="14"/>
       <c r="P145" s="4"/>
@@ -5805,7 +5848,7 @@
       <c r="L157" s="11"/>
       <c r="M157" s="10">
         <f>+M141+M135+M129+M123+M116+M110+M101+M96+M90+M85+M79+M65+M56+M51+M46+M39+M22+M27+M14</f>
-        <v>74672.7</v>
+        <v>78875.7</v>
       </c>
       <c r="N157" s="10">
         <f>+N141+N135+N129+N123+N116+N110+N101+N96+N90+N85+N79+N65+N56+N51+N46+N39+N22+N27+N14</f>
@@ -5813,7 +5856,7 @@
       </c>
       <c r="O157" s="19">
         <f>SUM(O7:O156)</f>
-        <v>-5364.3</v>
+        <v>-1161.3000000000002</v>
       </c>
       <c r="P157" s="4"/>
     </row>

--- a/Old Order Summary Acc/GMS Composite/GMS Composite.xlsx
+++ b/Old Order Summary Acc/GMS Composite/GMS Composite.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Store Documents\2021\Old Order Summary Acc\GMS Composite\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935"/>
   </bookViews>
@@ -12,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GMS!$B$6:$O$155</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -688,6 +693,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -735,7 +743,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -770,7 +778,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -981,8 +989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="M84" sqref="M84"/>
+    <sheetView tabSelected="1" topLeftCell="E73" workbookViewId="0">
+      <selection activeCell="L78" sqref="L78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
